--- a/KnowledgeGraph/data/raise_way.xlsx
+++ b/KnowledgeGraph/data/raise_way.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18755" windowHeight="7812"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <t>公募</t>
   </si>
   <si>
-    <t>公募又称公开发行，是指发行人通过中介机构向不特定的社会公众广泛地发售证券，通过公开营销等方式向没有特定限制的对象募集资金的业务模式</t>
+    <t>公募又称公开发行，是指发行人通过中介机构向不特定的社会公众广泛地发售证券，通过公开营销等方式向没有特定限制的对象募集资金的业务模式。</t>
   </si>
   <si>
     <t>对广大社会公众通过公开发售来募集资金，因为涉及众多中小投资人的利益，监管当局对公募资金的使用方向、信息披露内容、风险防范要求都非常高，信息需要定期披露。</t>
@@ -46,7 +46,7 @@
     <t>私募，即私募投资基金，是指以非公开发行方式向合格投资者募集的，投资于股票、股权、债券、期货、期权、基金份额及投资合同约定的其他投资标的（如艺术品、红酒等）的投资基金，简称私募基金。</t>
   </si>
   <si>
-    <t>而私募是面向少量的、特定的符合要求的投资者非公开募集资金的方式。</t>
+    <t>面向少量的、特定的符合要求的投资者非公开募集资金的方式。</t>
   </si>
   <si>
     <t>对参与者审核要求较高，发行审核没有公募严格，参加人一般应具有一定的经济实力、风险识别和风险承担能力。</t>
@@ -57,12 +57,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,10 +74,93 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -85,16 +168,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,120 +214,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -231,181 +224,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,17 +418,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,26 +442,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -486,6 +453,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,9 +483,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,6 +500,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -530,153 +523,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1004,10 +994,10 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1024,7 +1014,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1038,7 +1028,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
